--- a/src/main/resources/xlsx/pcs/pr-3_8.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-3_8.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD757D-DF27-4927-9236-B8B7DEAB1077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="3090" yWindow="3090" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -74,8 +75,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>本单位共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分党委名称（盖章）：party</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">中国共产党北京师范大学第十三次党员代表大会代表候选人初步人选名单
+      <t xml:space="preserve">title
 </t>
     </r>
     <r>
@@ -90,23 +103,11 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>本单位共有党员 mc 名，其中：在职教职工党员 tc 名，学生党员 sc 名，离退休党员 rc 名。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分党委名称（盖章）：party</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -681,11 +682,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="H8:I8"/>
+      <selection activeCell="A7" sqref="A7:M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -706,7 +707,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -723,7 +724,7 @@
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -740,7 +741,7 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -757,7 +758,7 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>

--- a/src/main/resources/xlsx/pcs/pr-3_8.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-3_8.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ACD757D-DF27-4927-9236-B8B7DEAB1077}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BC371-D22D-4660-AADC-9D98028DAA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="3090" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -99,7 +99,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>（“stage”阶段，deadline报党委组织部）</t>
+      <t>（“stage”阶段）</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -686,7 +686,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:M7"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/xlsx/pcs/pr-3_8.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-3_8.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30BC371-D22D-4660-AADC-9D98028DAA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B42F7-8CC7-4D78-B9BB-208677B997DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>性别</t>
   </si>
@@ -38,12 +38,6 @@
   </si>
   <si>
     <t>职别</t>
-  </si>
-  <si>
-    <t>职务</t>
-  </si>
-  <si>
-    <t>票数</t>
   </si>
   <si>
     <t>序号</t>
@@ -101,6 +95,24 @@
       </rPr>
       <t>（“stage”阶段）</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的党支部数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的
+党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推荐提名的正式
+党员数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -212,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -235,6 +247,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,7 +386,7 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -683,31 +698,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="A7" sqref="A7:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
+    <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
-    <col min="12" max="12" width="12.375" customWidth="1"/>
-    <col min="13" max="13" width="7.125" customWidth="1"/>
+    <col min="9" max="9" width="8.625" customWidth="1"/>
+    <col min="10" max="10" width="9.75" customWidth="1"/>
+    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="12" max="12" width="9.125" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="8.875" customWidth="1"/>
+    <col min="15" max="15" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B1" s="6"/>
       <c r="C1" s="7"/>
@@ -721,10 +738,12 @@
       <c r="K1" s="7"/>
       <c r="L1" s="7"/>
       <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -738,10 +757,12 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -755,10 +776,12 @@
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
     </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -772,28 +795,30 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>1</v>
@@ -808,17 +833,23 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -828,10 +859,12 @@
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -845,15 +878,16 @@
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A7:M7"/>
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="A3:M3"/>
+  <mergeCells count="5">
+    <mergeCell ref="A7:O7"/>
+    <mergeCell ref="A4:O4"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A3:O3"/>
+    <mergeCell ref="A2:O2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/pr-3_8.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-3_8.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE9B42F7-8CC7-4D78-B9BB-208677B997DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A974B-D21B-4DBA-9D36-0C3140DAEC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="645" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>说明：分党委按多于应选代表名额rate的比例确定代表候选人初步人选（即“nextStageShort”名单）。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分党委名称（盖章）：party</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,6 +109,10 @@
   </si>
   <si>
     <t>职务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>count</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,6 +233,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -247,9 +250,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -701,7 +701,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:O7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -723,80 +723,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="A1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
     </row>
     <row r="2" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
+      <c r="A4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -833,23 +833,23 @@
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
-      <c r="B6" s="9"/>
+      <c r="B6" s="4"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="4"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -863,23 +863,23 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/main/resources/xlsx/pcs/pr-3_8.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-3_8.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{624A974B-D21B-4DBA-9D36-0C3140DAEC5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5741F-C23B-4812-8802-788FC58B1C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="645" windowWidth="19695" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>性别</t>
   </si>
   <si>
     <t>民族</t>
-  </si>
-  <si>
-    <t>学历</t>
   </si>
   <si>
     <t>入党时间</t>
@@ -113,6 +110,14 @@
   </si>
   <si>
     <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -326,13 +331,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -380,13 +385,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -698,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -713,18 +718,19 @@
     <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="6" width="9.25" customWidth="1"/>
     <col min="7" max="8" width="5.625" customWidth="1"/>
-    <col min="9" max="9" width="8.625" customWidth="1"/>
-    <col min="10" max="10" width="9.75" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
-    <col min="12" max="12" width="9.125" customWidth="1"/>
-    <col min="13" max="13" width="7.625" customWidth="1"/>
-    <col min="14" max="14" width="8.875" customWidth="1"/>
-    <col min="15" max="15" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="6.5" customWidth="1"/>
+    <col min="10" max="10" width="8.625" customWidth="1"/>
+    <col min="11" max="11" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="7.625" customWidth="1"/>
+    <col min="15" max="15" width="8.875" customWidth="1"/>
+    <col min="16" max="16" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -740,10 +746,11 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -759,10 +766,11 @@
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
     </row>
-    <row r="3" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -778,10 +786,11 @@
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -797,55 +806,59 @@
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
-    <row r="5" spans="1:15" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="M5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="O5" s="1" t="s">
-        <v>17</v>
-      </c>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="3"/>
@@ -854,17 +867,18 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="4"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -880,14 +894,15 @@
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A7:O7"/>
-    <mergeCell ref="A4:O4"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="A3:O3"/>
-    <mergeCell ref="A2:O2"/>
+    <mergeCell ref="A7:P7"/>
+    <mergeCell ref="A4:P4"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:P3"/>
+    <mergeCell ref="A2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/pr-3_8.xlsx
+++ b/src/main/resources/xlsx/pcs/pr-3_8.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38D5741F-C23B-4812-8802-788FC58B1C0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="初步人选名单" sheetId="1" r:id="rId1"/>
@@ -34,9 +33,6 @@
     <t>入党时间</t>
   </si>
   <si>
-    <t>职别</t>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -120,11 +116,15 @@
     <t>学位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>职称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -702,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -730,7 +730,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="8"/>
@@ -750,7 +750,7 @@
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -770,7 +770,7 @@
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -790,7 +790,7 @@
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -810,52 +810,52 @@
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
@@ -878,7 +878,7 @@
     </row>
     <row r="7" spans="1:16" s="2" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
